--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -76,19 +76,22 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>fantastic</t>
@@ -97,37 +100,61 @@
     <t>pleased</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>friends</t>
@@ -136,337 +163,277 @@
     <t>glad</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>baking</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>quick</t>
+    <t>durable</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>anyone</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>brand</t>
   </si>
   <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>pot</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>really</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>price</t>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -830,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -899,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -917,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -949,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -967,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -999,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.475</v>
+        <v>0.575</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1017,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9354838709677419</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1041,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1049,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3396226415094339</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1067,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1091,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1099,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2828282828282828</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1117,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.85</v>
+        <v>0.859375</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1141,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1149,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2325581395348837</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1167,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8498452012383901</v>
+        <v>0.85</v>
       </c>
       <c r="L8">
-        <v>549</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>549</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1191,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1199,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2051282051282051</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1217,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
@@ -1249,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1189189189189189</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1267,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8405797101449275</v>
+        <v>0.8405572755417957</v>
       </c>
       <c r="L10">
-        <v>58</v>
+        <v>543</v>
       </c>
       <c r="M10">
-        <v>58</v>
+        <v>543</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1291,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1299,13 +1266,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1317,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1325,13 +1292,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7662337662337663</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1343,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1351,13 +1318,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1344,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L14">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1395,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1403,13 +1370,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7142857142857143</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1421,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1429,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6949152542372882</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L16">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="M16">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1455,13 +1422,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6888888888888889</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1481,13 +1448,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6842105263157895</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1507,13 +1474,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.676056338028169</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1533,13 +1500,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6712328767123288</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1559,13 +1526,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6323529411764706</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1585,13 +1552,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6316211878009631</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L22">
-        <v>787</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>787</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1603,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>459</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1614,10 +1581,10 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1629,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1637,13 +1604,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1655,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1663,13 +1630,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6041666666666666</v>
+        <v>0.609375</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1681,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1689,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1707,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1715,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1733,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1741,13 +1708,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1759,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1767,13 +1734,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5972222222222222</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1785,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1793,13 +1760,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5846153846153846</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1811,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1819,13 +1786,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.578125</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1837,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1845,13 +1812,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5771428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1863,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1871,13 +1838,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5769230769230769</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1889,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1897,13 +1864,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5769230769230769</v>
+        <v>0.5625</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1915,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1923,13 +1890,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.575</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1941,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1949,13 +1916,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1967,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1975,7 +1942,7 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5555555555555556</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L37">
         <v>15</v>
@@ -1993,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2001,13 +1968,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5389221556886228</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L38">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2019,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2027,13 +1994,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5180722891566265</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2045,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2053,13 +2020,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.5151515151515151</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2071,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2079,13 +2046,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.5079365079365079</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2105,13 +2072,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.5042735042735043</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L42">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M42">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2123,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2131,13 +2098,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4938271604938271</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2149,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2157,13 +2124,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.4754098360655737</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2175,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2183,13 +2150,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.4661654135338346</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L45">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2201,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2209,13 +2176,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4489795918367347</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2227,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2235,7 +2202,7 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4390243902439024</v>
+        <v>0.45</v>
       </c>
       <c r="L47">
         <v>18</v>
@@ -2253,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2261,13 +2228,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4358974358974359</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2279,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2287,13 +2254,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4342105263157895</v>
+        <v>0.44</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2305,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2313,13 +2280,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4313725490196079</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2331,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2339,13 +2306,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.43</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L51">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2357,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2365,13 +2332,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.4285714285714285</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2391,13 +2358,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.4216867469879518</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L53">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2409,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2417,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.4193548387096774</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L54">
         <v>26</v>
@@ -2435,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2443,13 +2410,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.4166666666666667</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2461,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2469,25 +2436,25 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.4107142857142857</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L56">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>16</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>23</v>
-      </c>
-      <c r="M56">
-        <v>23</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>33</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2495,13 +2462,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.4078947368421053</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2513,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2521,13 +2488,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3947368421052632</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2539,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2547,13 +2514,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3818181818181818</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2565,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2573,13 +2540,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3809523809523809</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2591,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2599,13 +2566,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3695652173913043</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2617,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2625,13 +2592,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3657587548638132</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L62">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M62">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2643,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2651,13 +2618,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2669,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2677,13 +2644,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.3480392156862745</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L64">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2695,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>266</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2703,7 +2670,7 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.3458646616541353</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L65">
         <v>46</v>
@@ -2721,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2729,13 +2696,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.3453237410071943</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L66">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="M66">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2747,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>91</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2755,13 +2722,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.3382352941176471</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2773,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2781,13 +2748,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.3333333333333333</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="L68">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2799,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2807,13 +2774,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.3294117647058823</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L69">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M69">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2825,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2833,7 +2800,7 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.3260869565217391</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L70">
         <v>15</v>
@@ -2851,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2859,13 +2826,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.3191489361702128</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2877,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2885,13 +2852,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.3178082191780822</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L72">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2903,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>498</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2911,13 +2878,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.2952380952380952</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2929,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2937,13 +2904,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.2792792792792793</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L74">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M74">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2955,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2963,13 +2930,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.2777777777777778</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2981,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2989,13 +2956,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.2679425837320574</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="L76">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M76">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3007,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3015,13 +2982,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2673267326732673</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L77">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3033,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>74</v>
+        <v>696</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3041,13 +3008,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2649006622516556</v>
+        <v>0.25</v>
       </c>
       <c r="L78">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3059,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3067,13 +3034,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.2638888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="L79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3085,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3093,13 +3060,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.2572658772874058</v>
+        <v>0.25</v>
       </c>
       <c r="L80">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3111,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>690</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3119,13 +3086,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2459016393442623</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3137,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3145,13 +3112,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.2361111111111111</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3163,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3197,13 +3164,13 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.231974921630094</v>
+        <v>0.2288401253918495</v>
       </c>
       <c r="L84">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M84">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3215,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3223,13 +3190,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.2272727272727273</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3241,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3249,25 +3216,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.2261904761904762</v>
+        <v>0.2095490716180371</v>
       </c>
       <c r="L86">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M86">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>65</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3275,25 +3242,25 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.2214765100671141</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L87">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M87">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3301,13 +3268,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.2077922077922078</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L88">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3319,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3327,13 +3294,13 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.2026490066225166</v>
+        <v>0.2046035805626598</v>
       </c>
       <c r="L89">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M89">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3345,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>602</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3356,10 +3323,10 @@
         <v>0.2</v>
       </c>
       <c r="L90">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M90">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3371,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3379,13 +3346,13 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1965811965811966</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3397,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3405,13 +3372,13 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1956521739130435</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L92">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M92">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3423,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3431,7 +3398,7 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1926605504587156</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L93">
         <v>21</v>
@@ -3449,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3457,13 +3424,13 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.190537084398977</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L94">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="M94">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3475,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>633</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3483,25 +3450,25 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1744186046511628</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>71</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3509,13 +3476,13 @@
         <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1721311475409836</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L96">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M96">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3527,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3535,13 +3502,13 @@
         <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1720430107526882</v>
+        <v>0.1615120274914089</v>
       </c>
       <c r="L97">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M97">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3553,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>77</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3561,13 +3528,13 @@
         <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1717171717171717</v>
+        <v>0.16</v>
       </c>
       <c r="L98">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M98">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3579,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3587,25 +3554,25 @@
         <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1684210526315789</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L99">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M99">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>79</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3613,25 +3580,25 @@
         <v>114</v>
       </c>
       <c r="K100">
-        <v>0.1617250673854447</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="L100">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M100">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3639,25 +3606,25 @@
         <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1607142857142857</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L101">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M101">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N101">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3665,13 +3632,13 @@
         <v>116</v>
       </c>
       <c r="K102">
-        <v>0.1602564102564103</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L102">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3683,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3691,13 +3658,13 @@
         <v>117</v>
       </c>
       <c r="K103">
-        <v>0.16</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L103">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M103">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3709,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>84</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3717,13 +3684,13 @@
         <v>118</v>
       </c>
       <c r="K104">
-        <v>0.1472868217054264</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M104">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3735,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>110</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3743,13 +3710,13 @@
         <v>119</v>
       </c>
       <c r="K105">
-        <v>0.1463414634146341</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L105">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M105">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3769,13 +3736,13 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <v>0.145985401459854</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L106">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M106">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3787,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>351</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3795,25 +3762,25 @@
         <v>121</v>
       </c>
       <c r="K107">
-        <v>0.1428571428571428</v>
+        <v>0.132118451025057</v>
       </c>
       <c r="L107">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="M107">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>108</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3821,13 +3788,13 @@
         <v>122</v>
       </c>
       <c r="K108">
-        <v>0.1415929203539823</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="L108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3839,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3847,13 +3814,13 @@
         <v>123</v>
       </c>
       <c r="K109">
-        <v>0.1409090909090909</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L109">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M109">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3865,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>378</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3873,25 +3840,25 @@
         <v>124</v>
       </c>
       <c r="K110">
-        <v>0.1386138613861386</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L110">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M110">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N110">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3899,13 +3866,13 @@
         <v>125</v>
       </c>
       <c r="K111">
-        <v>0.1374570446735395</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L111">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M111">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3917,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>251</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3925,13 +3892,13 @@
         <v>126</v>
       </c>
       <c r="K112">
-        <v>0.1372549019607843</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="L112">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3943,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>132</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3951,13 +3918,13 @@
         <v>127</v>
       </c>
       <c r="K113">
-        <v>0.1355932203389831</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L113">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M113">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3969,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>153</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3977,13 +3944,13 @@
         <v>128</v>
       </c>
       <c r="K114">
-        <v>0.134453781512605</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L114">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M114">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3995,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>206</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -4003,25 +3970,25 @@
         <v>129</v>
       </c>
       <c r="K115">
-        <v>0.131578947368421</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L115">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M115">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>396</v>
+        <v>633</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4029,25 +3996,25 @@
         <v>130</v>
       </c>
       <c r="K116">
-        <v>0.1296296296296296</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L116">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M116">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N116">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>235</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4055,13 +4022,13 @@
         <v>131</v>
       </c>
       <c r="K117">
-        <v>0.1259259259259259</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="L117">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M117">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4073,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4081,25 +4048,25 @@
         <v>132</v>
       </c>
       <c r="K118">
-        <v>0.1221374045801527</v>
+        <v>0.0737913486005089</v>
       </c>
       <c r="L118">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M118">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
-        <v>115</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4107,7 +4074,7 @@
         <v>133</v>
       </c>
       <c r="K119">
-        <v>0.1212121212121212</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="L119">
         <v>20</v>
@@ -4125,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>145</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4133,25 +4100,25 @@
         <v>134</v>
       </c>
       <c r="K120">
-        <v>0.1153846153846154</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L120">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M120">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>184</v>
+        <v>993</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4159,25 +4126,25 @@
         <v>135</v>
       </c>
       <c r="K121">
-        <v>0.1121718377088305</v>
+        <v>0.06868131868131869</v>
       </c>
       <c r="L121">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M121">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4185,25 +4152,25 @@
         <v>136</v>
       </c>
       <c r="K122">
-        <v>0.1042944785276074</v>
+        <v>0.06654343807763401</v>
       </c>
       <c r="L122">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M122">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>146</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4211,25 +4178,25 @@
         <v>137</v>
       </c>
       <c r="K123">
-        <v>0.09803921568627451</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="L123">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M123">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
-        <v>138</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4237,25 +4204,25 @@
         <v>138</v>
       </c>
       <c r="K124">
-        <v>0.09677419354838709</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L124">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M124">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
-        <v>224</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4263,25 +4230,25 @@
         <v>139</v>
       </c>
       <c r="K125">
-        <v>0.09289617486338798</v>
+        <v>0.04332755632582323</v>
       </c>
       <c r="L125">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M125">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125">
-        <v>332</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4289,311 +4256,25 @@
         <v>140</v>
       </c>
       <c r="K126">
-        <v>0.08691588785046729</v>
+        <v>0.02486910994764398</v>
       </c>
       <c r="L126">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M126">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="N126">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="O126">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="127" spans="10:17">
-      <c r="J127" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K127">
-        <v>0.08034433285509325</v>
-      </c>
-      <c r="L127">
-        <v>56</v>
-      </c>
-      <c r="M127">
-        <v>57</v>
-      </c>
-      <c r="N127">
-        <v>0.98</v>
-      </c>
-      <c r="O127">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P127" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q127">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="128" spans="10:17">
-      <c r="J128" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K128">
-        <v>0.07360406091370558</v>
-      </c>
-      <c r="L128">
-        <v>29</v>
-      </c>
-      <c r="M128">
-        <v>29</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K129">
-        <v>0.06642066420664207</v>
-      </c>
-      <c r="L129">
-        <v>36</v>
-      </c>
-      <c r="M129">
-        <v>36</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="130" spans="10:17">
-      <c r="J130" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K130">
-        <v>0.06617647058823529</v>
-      </c>
-      <c r="L130">
-        <v>18</v>
-      </c>
-      <c r="M130">
-        <v>18</v>
-      </c>
-      <c r="N130">
-        <v>1</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="10:17">
-      <c r="J131" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K131">
-        <v>0.0521978021978022</v>
-      </c>
-      <c r="L131">
-        <v>19</v>
-      </c>
-      <c r="M131">
-        <v>20</v>
-      </c>
-      <c r="N131">
-        <v>0.95</v>
-      </c>
-      <c r="O131">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P131" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q131">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="132" spans="10:17">
-      <c r="J132" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K132">
-        <v>0.05072463768115942</v>
-      </c>
-      <c r="L132">
-        <v>21</v>
-      </c>
-      <c r="M132">
-        <v>21</v>
-      </c>
-      <c r="N132">
-        <v>1</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="133" spans="10:17">
-      <c r="J133" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K133">
-        <v>0.04941860465116279</v>
-      </c>
-      <c r="L133">
-        <v>17</v>
-      </c>
-      <c r="M133">
-        <v>18</v>
-      </c>
-      <c r="N133">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O133">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P133" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q133">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="134" spans="10:17">
-      <c r="J134" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K134">
-        <v>0.04419410745233969</v>
-      </c>
-      <c r="L134">
-        <v>51</v>
-      </c>
-      <c r="M134">
-        <v>54</v>
-      </c>
-      <c r="N134">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O134">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P134" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q134">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="135" spans="10:17">
-      <c r="J135" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K135">
-        <v>0.04222648752399232</v>
-      </c>
-      <c r="L135">
-        <v>22</v>
-      </c>
-      <c r="M135">
-        <v>23</v>
-      </c>
-      <c r="N135">
-        <v>0.96</v>
-      </c>
-      <c r="O135">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P135" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q135">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="136" spans="10:17">
-      <c r="J136" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K136">
-        <v>0.04087193460490463</v>
-      </c>
-      <c r="L136">
-        <v>15</v>
-      </c>
-      <c r="M136">
-        <v>19</v>
-      </c>
-      <c r="N136">
-        <v>0.79</v>
-      </c>
-      <c r="O136">
-        <v>0.21</v>
-      </c>
-      <c r="P136" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q136">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="137" spans="10:17">
-      <c r="J137" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K137">
-        <v>0.02349869451697128</v>
-      </c>
-      <c r="L137">
-        <v>18</v>
-      </c>
-      <c r="M137">
-        <v>19</v>
-      </c>
-      <c r="N137">
-        <v>0.95</v>
-      </c>
-      <c r="O137">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P137" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q137">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
